--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245245</v>
+        <v>17.39906333333333</v>
       </c>
       <c r="H2">
-        <v>0.735735</v>
+        <v>52.19719000000001</v>
       </c>
       <c r="I2">
-        <v>0.0130094690177091</v>
+        <v>0.9351306508759385</v>
       </c>
       <c r="J2">
-        <v>0.0130094690177091</v>
+        <v>0.9351306508759385</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N2">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O2">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P2">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q2">
-        <v>0.02313641330000001</v>
+        <v>0.6427561976599999</v>
       </c>
       <c r="R2">
-        <v>0.2082277197</v>
+        <v>5.78480577894</v>
       </c>
       <c r="S2">
-        <v>0.0006753307875145828</v>
+        <v>0.01962870029015481</v>
       </c>
       <c r="T2">
-        <v>0.0006753307875145828</v>
+        <v>0.01962870029015481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245245</v>
+        <v>17.39906333333333</v>
       </c>
       <c r="H3">
-        <v>0.735735</v>
+        <v>52.19719000000001</v>
       </c>
       <c r="I3">
-        <v>0.0130094690177091</v>
+        <v>0.9351306508759385</v>
       </c>
       <c r="J3">
-        <v>0.0130094690177091</v>
+        <v>0.9351306508759385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P3">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q3">
-        <v>0.2312934206916667</v>
+        <v>16.40925961873889</v>
       </c>
       <c r="R3">
-        <v>2.081640786225</v>
+        <v>147.68333656865</v>
       </c>
       <c r="S3">
-        <v>0.006751243847405029</v>
+        <v>0.5011113703954412</v>
       </c>
       <c r="T3">
-        <v>0.006751243847405029</v>
+        <v>0.5011113703954412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.245245</v>
+        <v>17.39906333333333</v>
       </c>
       <c r="H4">
-        <v>0.735735</v>
+        <v>52.19719000000001</v>
       </c>
       <c r="I4">
-        <v>0.0130094690177091</v>
+        <v>0.9351306508759385</v>
       </c>
       <c r="J4">
-        <v>0.0130094690177091</v>
+        <v>0.9351306508759385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q4">
-        <v>0.1912664937516667</v>
+        <v>13.56952369397889</v>
       </c>
       <c r="R4">
-        <v>1.721398443765</v>
+        <v>122.12571324581</v>
       </c>
       <c r="S4">
-        <v>0.005582894382789489</v>
+        <v>0.4143905801903426</v>
       </c>
       <c r="T4">
-        <v>0.00558289438278949</v>
+        <v>0.4143905801903427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.39906333333333</v>
+        <v>1.206960666666667</v>
       </c>
       <c r="H5">
-        <v>52.19718999999999</v>
+        <v>3.620882</v>
       </c>
       <c r="I5">
-        <v>0.9229650976458578</v>
+        <v>0.06486934912406146</v>
       </c>
       <c r="J5">
-        <v>0.9229650976458579</v>
+        <v>0.06486934912406146</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N5">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O5">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P5">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q5">
-        <v>1.641427634866667</v>
+        <v>0.04458754094799999</v>
       </c>
       <c r="R5">
-        <v>14.7728487138</v>
+        <v>0.401287868532</v>
       </c>
       <c r="S5">
-        <v>0.04791177452309364</v>
+        <v>0.001361628998879371</v>
       </c>
       <c r="T5">
-        <v>0.04791177452309364</v>
+        <v>0.001361628998879371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.39906333333333</v>
+        <v>1.206960666666667</v>
       </c>
       <c r="H6">
-        <v>52.19718999999999</v>
+        <v>3.620882</v>
       </c>
       <c r="I6">
-        <v>0.9229650976458578</v>
+        <v>0.06486934912406146</v>
       </c>
       <c r="J6">
-        <v>0.9229650976458579</v>
+        <v>0.06486934912406146</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.829335</v>
       </c>
       <c r="O6">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P6">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q6">
-        <v>16.40925961873889</v>
+        <v>1.138298685941111</v>
       </c>
       <c r="R6">
-        <v>147.68333656865</v>
+        <v>10.24468817347</v>
       </c>
       <c r="S6">
-        <v>0.4789713114631372</v>
+        <v>0.03476173987642219</v>
       </c>
       <c r="T6">
-        <v>0.4789713114631372</v>
+        <v>0.03476173987642219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.39906333333333</v>
+        <v>1.206960666666667</v>
       </c>
       <c r="H7">
-        <v>52.19718999999999</v>
+        <v>3.620882</v>
       </c>
       <c r="I7">
-        <v>0.9229650976458578</v>
+        <v>0.06486934912406146</v>
       </c>
       <c r="J7">
-        <v>0.9229650976458579</v>
+        <v>0.06486934912406146</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>2.339699</v>
       </c>
       <c r="O7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q7">
-        <v>13.56952369397889</v>
+        <v>0.941308221613111</v>
       </c>
       <c r="R7">
-        <v>122.12571324581</v>
+        <v>8.471773994517999</v>
       </c>
       <c r="S7">
-        <v>0.3960820116596269</v>
+        <v>0.02874598024875991</v>
       </c>
       <c r="T7">
-        <v>0.396082011659627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.206960666666667</v>
-      </c>
-      <c r="H8">
-        <v>3.620882</v>
-      </c>
-      <c r="I8">
-        <v>0.06402543333643304</v>
-      </c>
-      <c r="J8">
-        <v>0.06402543333643304</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.09434000000000002</v>
-      </c>
-      <c r="N8">
-        <v>0.28302</v>
-      </c>
-      <c r="O8">
-        <v>0.05191071108246545</v>
-      </c>
-      <c r="P8">
-        <v>0.05191071108246544</v>
-      </c>
-      <c r="Q8">
-        <v>0.1138646692933333</v>
-      </c>
-      <c r="R8">
-        <v>1.02478202364</v>
-      </c>
-      <c r="S8">
-        <v>0.003323605771857227</v>
-      </c>
-      <c r="T8">
-        <v>0.003323605771857227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.206960666666667</v>
-      </c>
-      <c r="H9">
-        <v>3.620882</v>
-      </c>
-      <c r="I9">
-        <v>0.06402543333643304</v>
-      </c>
-      <c r="J9">
-        <v>0.06402543333643304</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.9431116666666667</v>
-      </c>
-      <c r="N9">
-        <v>2.829335</v>
-      </c>
-      <c r="O9">
-        <v>0.5189484550226392</v>
-      </c>
-      <c r="P9">
-        <v>0.5189484550226391</v>
-      </c>
-      <c r="Q9">
-        <v>1.138298685941111</v>
-      </c>
-      <c r="R9">
-        <v>10.24468817347</v>
-      </c>
-      <c r="S9">
-        <v>0.03322589971209691</v>
-      </c>
-      <c r="T9">
-        <v>0.0332258997120969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.206960666666667</v>
-      </c>
-      <c r="H10">
-        <v>3.620882</v>
-      </c>
-      <c r="I10">
-        <v>0.06402543333643304</v>
-      </c>
-      <c r="J10">
-        <v>0.06402543333643304</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.7798996666666667</v>
-      </c>
-      <c r="N10">
-        <v>2.339699</v>
-      </c>
-      <c r="O10">
-        <v>0.4291408338948954</v>
-      </c>
-      <c r="P10">
-        <v>0.4291408338948954</v>
-      </c>
-      <c r="Q10">
-        <v>0.941308221613111</v>
-      </c>
-      <c r="R10">
-        <v>8.471773994517999</v>
-      </c>
-      <c r="S10">
-        <v>0.02747592785247891</v>
-      </c>
-      <c r="T10">
-        <v>0.02747592785247891</v>
+        <v>0.02874598024875991</v>
       </c>
     </row>
   </sheetData>
